--- a/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,19</t>
+          <t>0,0; 32,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,85</t>
+          <t>0,0; 39,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,9</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,29</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,83</t>
+          <t>0,0; 24,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,1</t>
+          <t>0,0; 30,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,15</t>
+          <t>0,0; 28,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,72</t>
+          <t>0,0; 43,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,39</t>
+          <t>0,0; 18,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,0</t>
+          <t>3,43; 25,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,09</t>
+          <t>0,0; 18,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,43</t>
+          <t>0,0; 28,5</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,76%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,22</t>
+          <t>4,3; 13,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,66</t>
+          <t>1,12; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,7</t>
+          <t>2,65; 9,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,46</t>
+          <t>1,17; 6,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 11,59</t>
+          <t>3,16; 10,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,31</t>
+          <t>3,68; 12,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,72</t>
+          <t>3,21; 11,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,08</t>
+          <t>2,49; 9,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,92</t>
+          <t>4,61; 10,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,02</t>
+          <t>3,0; 8,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,89</t>
+          <t>3,66; 9,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,94</t>
+          <t>2,17; 6,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,39</t>
+          <t>4,83; 15,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,94</t>
+          <t>2,93; 13,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,15; 9,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,84; 10,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,07</t>
+          <t>0,94; 9,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,47</t>
+          <t>5,08; 16,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,75</t>
+          <t>1,48; 8,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>2,3; 10,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,42</t>
+          <t>3,82; 10,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 25,67</t>
+          <t>5,15; 12,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,04</t>
+          <t>1,98; 7,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,5</t>
+          <t>2,4; 7,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,38</t>
+          <t>2,09; 9,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,15</t>
+          <t>1,4; 8,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,06</t>
+          <t>1,44; 8,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,32</t>
+          <t>1,18; 7,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,31</t>
+          <t>3,22; 11,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 16,21</t>
+          <t>0,83; 8,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,54</t>
+          <t>2,53; 10,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,7</t>
+          <t>0,55; 5,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,51</t>
+          <t>3,13; 8,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,19</t>
+          <t>1,72; 7,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,32</t>
+          <t>2,91; 7,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,72</t>
+          <t>1,1; 4,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,39</t>
+          <t>0,0; 30,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,94</t>
+          <t>0,0; 42,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,07</t>
+          <t>0,0; 23,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,47</t>
+          <t>0,0; 31,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,75</t>
+          <t>0,0; 30,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,42</t>
+          <t>0,0; 18,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 25,67</t>
+          <t>3,45; 28,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,04</t>
+          <t>0,0; 15,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 13,43</t>
+          <t>2,99; 13,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 17,29</t>
+          <t>4,61; 18,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,35</t>
+          <t>0,0; 8,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,55</t>
+          <t>0,58; 6,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 14,2</t>
+          <t>2,49; 14,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,17</t>
+          <t>1,12; 11,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,02</t>
+          <t>1,17; 9,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,25</t>
+          <t>2,56; 12,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,23</t>
+          <t>3,81; 11,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 12,21</t>
+          <t>4,42; 12,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,7</t>
+          <t>1,17; 6,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,35</t>
+          <t>1,96; 7,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 13,19</t>
+          <t>4,2; 13,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,85</t>
+          <t>1,12; 6,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,9</t>
+          <t>2,66; 10,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,29</t>
+          <t>1,2; 6,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,83</t>
+          <t>2,93; 10,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,1</t>
+          <t>4,08; 12,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,15</t>
+          <t>3,51; 11,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,72</t>
+          <t>2,39; 9,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,39</t>
+          <t>5,02; 10,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,0</t>
+          <t>2,96; 7,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,09</t>
+          <t>3,71; 9,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,43</t>
+          <t>1,99; 6,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,38</t>
+          <t>4,85; 15,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,15</t>
+          <t>3,17; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,06</t>
+          <t>0,86; 8,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,32</t>
+          <t>1,68; 8,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,31</t>
+          <t>0,98; 9,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 16,21</t>
+          <t>5,02; 16,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,54</t>
+          <t>1,49; 8,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,7</t>
+          <t>2,23; 10,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,51</t>
+          <t>3,8; 10,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,19</t>
+          <t>5,09; 12,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,32</t>
+          <t>1,84; 7,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,72</t>
+          <t>2,58; 8,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,22</t>
+          <t>2,14; 9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,66</t>
+          <t>1,4; 9,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,7</t>
+          <t>1,55; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,46</t>
+          <t>1,18; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 11,59</t>
+          <t>2,72; 11,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,31</t>
+          <t>1,05; 8,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,72</t>
+          <t>2,25; 10,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,08</t>
+          <t>0,55; 5,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,92</t>
+          <t>3,06; 8,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,02</t>
+          <t>1,73; 6,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,89</t>
+          <t>2,77; 7,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,94</t>
+          <t>1,21; 4,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,5</t>
+          <t>5,24; 9,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,9</t>
+          <t>3,93; 7,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,99</t>
+          <t>2,44; 5,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,95</t>
+          <t>1,97; 4,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,19</t>
+          <t>4,06; 8,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,81</t>
+          <t>4,23; 8,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,5</t>
+          <t>3,64; 7,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,73</t>
+          <t>3,02; 6,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,06</t>
+          <t>5,12; 8,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,69</t>
+          <t>4,69; 7,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,05</t>
+          <t>3,4; 5,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,06</t>
+          <t>2,79; 5,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,01</t>
+          <t>0,0; 28,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,49</t>
+          <t>0,0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,85</t>
+          <t>0,0; 24,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,18</t>
+          <t>0,0; 28,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,0</t>
+          <t>0,0; 36,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>0,0; 36,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,26</t>
+          <t>0,0; 17,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 28,75</t>
+          <t>0,0; 27,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,12</t>
+          <t>0,0; 17,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,5</t>
+          <t>0,0; 24,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,87</t>
+          <t>3,02; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 18,38</t>
+          <t>4,78; 17,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,22</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,42</t>
+          <t>0,56; 6,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,5</t>
+          <t>2,93; 13,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,62</t>
+          <t>1,23; 11,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,87</t>
+          <t>1,17; 10,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,41</t>
+          <t>2,14; 12,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,42</t>
+          <t>4,2; 11,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 12,18</t>
+          <t>4,49; 12,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,77</t>
+          <t>1,18; 6,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,4</t>
+          <t>1,91; 7,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,04</t>
+          <t>4,25; 12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,23</t>
+          <t>1,12; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 10,65</t>
+          <t>2,55; 10,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,56</t>
+          <t>1,09; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,44</t>
+          <t>3,43; 11,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 12,46</t>
+          <t>4,02; 12,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 11,2</t>
+          <t>3,56; 11,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,54</t>
+          <t>2,57; 10,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,43</t>
+          <t>4,76; 10,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,67</t>
+          <t>3,18; 7,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,15</t>
+          <t>3,8; 8,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,05</t>
+          <t>2,18; 6,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 15,38</t>
+          <t>4,79; 15,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 13,39</t>
+          <t>3,28; 12,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,88</t>
+          <t>0,86; 9,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,56</t>
+          <t>1,59; 8,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,52</t>
+          <t>0,96; 8,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,27</t>
+          <t>4,92; 15,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,98</t>
+          <t>1,5; 9,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,08</t>
+          <t>2,44; 10,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,27</t>
+          <t>3,86; 10,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,1</t>
+          <t>5,16; 12,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,09</t>
+          <t>1,81; 7,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,14</t>
+          <t>2,6; 7,9</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,26</t>
+          <t>2,14; 9,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 9,6</t>
+          <t>1,46; 8,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,04</t>
+          <t>1,33; 8,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,22</t>
+          <t>1,22; 7,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 11,45</t>
+          <t>3,13; 11,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,05</t>
+          <t>1,07; 8,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,47</t>
+          <t>2,73; 10,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,38</t>
+          <t>0,54; 4,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,93</t>
+          <t>3,18; 8,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,97</t>
+          <t>1,96; 6,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,76</t>
+          <t>2,77; 7,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,83</t>
+          <t>1,06; 4,76</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,45</t>
+          <t>5,12; 9,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,7</t>
+          <t>3,95; 8,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,79</t>
+          <t>2,5; 5,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,93</t>
+          <t>1,91; 4,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,41</t>
+          <t>4,0; 8,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,68</t>
+          <t>4,53; 8,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,38</t>
+          <t>3,62; 7,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,74</t>
+          <t>3,05; 6,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,14</t>
+          <t>5,18; 8,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,59</t>
+          <t>4,62; 7,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,92</t>
+          <t>3,36; 5,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,09</t>
+          <t>2,84; 5,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,37</t>
+          <t>2,6; 11,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,41</t>
+          <t>1,88; 11,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,08; 10,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>2,68; 13,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,87</t>
+          <t>3,44; 13,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,06</t>
+          <t>5,94; 18,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,12</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,57</t>
+          <t>0,54; 5,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,34</t>
+          <t>3,99; 10,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,06</t>
+          <t>4,96; 13,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,35</t>
+          <t>1,18; 6,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,11</t>
+          <t>2,04; 7,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,57</t>
+          <t>3,16; 10,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 17,73</t>
+          <t>3,68; 12,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>3,21; 11,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,92</t>
+          <t>2,7; 12,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,72</t>
+          <t>4,3; 13,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,28</t>
+          <t>1,12; 5,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,29</t>
+          <t>2,65; 9,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,14</t>
+          <t>1,18; 6,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 11,2</t>
+          <t>4,61; 10,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,32</t>
+          <t>3,0; 8,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,94</t>
+          <t>3,66; 9,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,49</t>
+          <t>2,35; 7,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>6,52%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,78</t>
+          <t>0,94; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,85</t>
+          <t>5,08; 16,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,17</t>
+          <t>1,48; 8,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,28</t>
+          <t>2,16; 10,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,19</t>
+          <t>4,83; 15,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,43</t>
+          <t>2,93; 13,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,15</t>
+          <t>1,15; 9,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,51</t>
+          <t>1,85; 10,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,35</t>
+          <t>3,82; 10,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,83</t>
+          <t>5,15; 12,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,95</t>
+          <t>1,98; 7,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,22</t>
+          <t>2,3; 7,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 15,77</t>
+          <t>3,22; 11,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,69</t>
+          <t>0,83; 8,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,53</t>
+          <t>2,53; 10,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,42</t>
+          <t>0,55; 5,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,54</t>
+          <t>2,09; 9,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 15,54</t>
+          <t>1,4; 8,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,07</t>
+          <t>1,44; 8,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 10,45</t>
+          <t>1,26; 7,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,55</t>
+          <t>3,13; 8,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 12,42</t>
+          <t>1,72; 7,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,01</t>
+          <t>2,91; 7,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,9</t>
+          <t>1,15; 5,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,98</t>
+          <t>4,11; 8,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,7</t>
+          <t>4,5; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,0</t>
+          <t>3,59; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,25</t>
+          <t>3,15; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 11,65</t>
+          <t>5,24; 9,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,43</t>
+          <t>3,98; 7,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,25</t>
+          <t>2,4; 5,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,82</t>
+          <t>2,0; 5,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,99</t>
+          <t>5,12; 8,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,74</t>
+          <t>4,6; 7,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,73</t>
+          <t>3,41; 6,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,76</t>
+          <t>2,8; 5,22</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 9,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 8,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 5,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 4,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 8,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,53; 8,97</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 7,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 6,65</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 8,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 7,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 5,99</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 5,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
